--- a/Homework09.xlsx
+++ b/Homework09.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\Основы моделирования бизнес процессов\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IT\Основы моделирования бизнес-процессов\Business-process-modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8284EBE-7B4D-460D-9337-1A720ED2220E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7284E900-FC91-4ED0-8953-5BB020856D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Homework 9" sheetId="1" r:id="rId1"/>
+    <sheet name="Homework 10" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Урок 9. Детальная подготовка инициатив по оптимизации</t>
   </si>
@@ -86,13 +96,153 @@
   </si>
   <si>
     <t>Надо заниматься обучением персонала</t>
+  </si>
+  <si>
+    <t>2. Состав команды</t>
+  </si>
+  <si>
+    <t>3. Разбить работу на блоки</t>
+  </si>
+  <si>
+    <t>4. определить последовательности работ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Отценить время </t>
+  </si>
+  <si>
+    <t>1. Оценка по SMART</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Внедрения CRM системы (например Bitrix24)</t>
+  </si>
+  <si>
+    <t>Внедрить CRM в организацию и обучить сотрудников.
+Для обучения использовать курсы нанятого эксперта и бесплатные материалы.
+Выгода от внедрения CRM: организация более сложных проектов, структурирование и оценка текущей работы. Срок на внедрение 3 месяца.</t>
+  </si>
+  <si>
+    <t>Мера достижения: Получение статистики по существующим проктам и расчёт KPI</t>
+  </si>
+  <si>
+    <t>Цель явно достижима, особенно с приглащённым экспертом.</t>
+  </si>
+  <si>
+    <t>Преспективы грамотной и современной работы, открывают новые рынки и оптимизацию существующей работы.</t>
+  </si>
+  <si>
+    <t>3 месяца кажется достаточным чтобы получить первые результаты работы в CRM</t>
+  </si>
+  <si>
+    <t>Сис админ</t>
+  </si>
+  <si>
+    <t>Сотрудник</t>
+  </si>
+  <si>
+    <t>Задачи</t>
+  </si>
+  <si>
+    <t>Установка ПО, синхронизация</t>
+  </si>
+  <si>
+    <t>Руководитель внедрения</t>
+  </si>
+  <si>
+    <t>Бухгалтерия</t>
+  </si>
+  <si>
+    <t>Нанятый эксперт</t>
+  </si>
+  <si>
+    <t>Проведения обучающих семинаров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Составление договора и оплата ПО и нанятого эксперта </t>
+  </si>
+  <si>
+    <t>Следить за сроками внедрения, отчитаться о результатах</t>
+  </si>
+  <si>
+    <t>2. Установка ПО</t>
+  </si>
+  <si>
+    <t>3. Обучение сотрудников</t>
+  </si>
+  <si>
+    <t>3.1 Найм специалиста</t>
+  </si>
+  <si>
+    <t>3.2 Проведение семинаров</t>
+  </si>
+  <si>
+    <t>1.1 Составление договора</t>
+  </si>
+  <si>
+    <t>1.2 Оплата ПО</t>
+  </si>
+  <si>
+    <t>2.1 Установка на все девайсы</t>
+  </si>
+  <si>
+    <t>2.2 Синхронизация работы</t>
+  </si>
+  <si>
+    <t>3.3 Оплата специалиста</t>
+  </si>
+  <si>
+    <t>5. Анализ результатов</t>
+  </si>
+  <si>
+    <t>6. Внесение изменений в структуру CRM</t>
+  </si>
+  <si>
+    <t>Пункт</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>1 дн</t>
+  </si>
+  <si>
+    <t>4 дн</t>
+  </si>
+  <si>
+    <t>30 дн</t>
+  </si>
+  <si>
+    <t>60 дн</t>
+  </si>
+  <si>
+    <t>4. Определить последовательности работ</t>
+  </si>
+  <si>
+    <t>1. Оценка тарифа, Покупка ПО</t>
+  </si>
+  <si>
+    <t>4. Получение результатов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +272,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -181,6 +338,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -196,6 +360,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1599</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>105345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB789227-429D-407F-891A-A27FA1BDE743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="10668000"/>
+          <a:ext cx="11460174" cy="4086795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,32 +680,32 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.21875" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>4</v>
@@ -504,10 +717,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -527,7 +740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -549,7 +762,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -571,7 +784,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
@@ -596,22 +809,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
@@ -619,4 +832,276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E082A9-AE66-41D1-8994-367D18165662}">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="9">
+        <v>1</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="9">
+        <v>2</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="9">
+        <v>3</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="9">
+        <v>4</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="9">
+        <v>5</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="9">
+        <v>6</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>